--- a/www.eia.gov/electricity/monthly/xls/table_2_10_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_10_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Table 2.10.A. Consumption of Petroleum Coke for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Thousand Tons)</t>
+    <t>November 2016 and November 2015 (Thousand Tons)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1625,7 +1625,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>22</v>
@@ -1652,21 +1652,21 @@
         <v>22</v>
       </c>
       <c r="L13" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
-        <v>-1</v>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -1686,8 +1686,8 @@
       <c r="J14" s="13">
         <v>0</v>
       </c>
-      <c r="K14" s="13">
-        <v>0</v>
+      <c r="K14" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L14" s="13">
         <v>1</v>
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="B17" s="16">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D17" s="17">
-        <v>0.28000000000000003</v>
+        <v>-0.49</v>
       </c>
       <c r="E17" s="16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="16">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G17" s="16">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H17" s="16">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D19" s="14">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>23</v>
       </c>
       <c r="C20" s="13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="14">
-        <v>0.63</v>
+        <v>1.65</v>
       </c>
       <c r="E20" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="13">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13">
         <v>45</v>
       </c>
-      <c r="C21" s="13">
-        <v>39</v>
-      </c>
       <c r="D21" s="14">
-        <v>0.16</v>
+        <v>-0.31</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="13">
+        <v>31</v>
+      </c>
+      <c r="H21" s="13">
         <v>45</v>
-      </c>
-      <c r="H21" s="13">
-        <v>39</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1964,19 +1964,19 @@
         <v>31</v>
       </c>
       <c r="B22" s="13">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
         <v>6</v>
       </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
       <c r="D22" s="14">
-        <v>3.57</v>
+        <v>-0.22</v>
       </c>
       <c r="E22" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="13">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="L22" s="13">
-        <v>0.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J23" s="16">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>22</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="13">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J24" s="13">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>22</v>
@@ -2306,20 +2306,20 @@
         <v>40</v>
       </c>
       <c r="B31" s="16">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C31" s="16">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D31" s="17">
-        <v>-0.3</v>
+        <v>-0.49</v>
       </c>
       <c r="E31" s="16">
+        <v>16</v>
+      </c>
+      <c r="F31" s="16">
         <v>32</v>
       </c>
-      <c r="F31" s="16">
-        <v>45</v>
-      </c>
       <c r="G31" s="16">
         <v>0</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="16">
         <v>3</v>
@@ -2420,19 +2420,19 @@
         <v>43</v>
       </c>
       <c r="B34" s="13">
+        <v>16</v>
+      </c>
+      <c r="C34" s="13">
         <v>32</v>
       </c>
-      <c r="C34" s="13">
-        <v>45</v>
-      </c>
       <c r="D34" s="14">
-        <v>-0.28999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E34" s="13">
+        <v>16</v>
+      </c>
+      <c r="F34" s="13">
         <v>32</v>
-      </c>
-      <c r="F34" s="13">
-        <v>45</v>
       </c>
       <c r="G34" s="13">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="13">
         <v>3</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.46</v>
+        <v>-0.42</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="13">
         <v>3</v>
@@ -2686,19 +2686,19 @@
         <v>50</v>
       </c>
       <c r="B41" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
       <c r="E41" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G41" s="16">
         <v>0</v>
@@ -2762,19 +2762,19 @@
         <v>52</v>
       </c>
       <c r="B43" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D43" s="14">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
       <c r="E43" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>55</v>
       </c>
       <c r="B46" s="16">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C46" s="16">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="D46" s="17">
-        <v>-0.43</v>
+        <v>1.96</v>
       </c>
       <c r="E46" s="16">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="F46" s="16">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="G46" s="16">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L46" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,19 +2952,19 @@
         <v>57</v>
       </c>
       <c r="B48" s="13">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="C48" s="13">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.44</v>
+        <v>2.12</v>
       </c>
       <c r="E48" s="13">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="F48" s="13">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="B51" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17">
-        <v>2.4E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E51" s="16">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="16">
         <v>0</v>
@@ -3218,13 +3218,13 @@
         <v>64</v>
       </c>
       <c r="B55" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="14">
-        <v>2.4E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="16">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="C67" s="16">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D67" s="17">
-        <v>-0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E67" s="16">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="F67" s="16">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="G67" s="16">
+        <v>47</v>
+      </c>
+      <c r="H67" s="16">
         <v>62</v>
       </c>
-      <c r="H67" s="16">
-        <v>57</v>
-      </c>
       <c r="I67" s="16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J67" s="16">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K67" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L67" s="16">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
